--- a/Liquid Vision Plumbing/37229/zres_siteapp_NEW.xlsx
+++ b/Liquid Vision Plumbing/37229/zres_siteapp_NEW.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Liquid Vision Plumbing\37229\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7F9BBF-5727-4518-952D-1A40DA7B2B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC502015-5FC4-4CDD-BBA7-FD535BE90469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="330" windowWidth="28890" windowHeight="19710" xr2:uid="{484357A6-E8EE-4CFD-B5D3-FC42F38F2F05}"/>
+    <workbookView xWindow="11355" yWindow="2865" windowWidth="26955" windowHeight="17880" xr2:uid="{484357A6-E8EE-4CFD-B5D3-FC42F38F2F05}"/>
   </bookViews>
   <sheets>
     <sheet name="zres_siteapp_NEW" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">zres_siteapp_NEW!$A$1:$G$111</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="87">
   <si>
     <t>Id</t>
   </si>
@@ -41,13 +44,253 @@
   </si>
   <si>
     <t>Postfix</t>
+  </si>
+  <si>
+    <t>4641eac9-4da8-4732-b0b0-d0c326542187</t>
+  </si>
+  <si>
+    <t>checklist</t>
+  </si>
+  <si>
+    <t>Bar Commissioning</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>45e8814a-82cf-423b-a9fd-c3a56e777229</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>cde6ebbc-8d90-4d8a-9f8e-807c53c114e3</t>
+  </si>
+  <si>
+    <t>checkpoint</t>
+  </si>
+  <si>
+    <t>SINK</t>
+  </si>
+  <si>
+    <t>47962cd0-9c49-4410-8081-dfe2c0591a7e</t>
+  </si>
+  <si>
+    <t>SINK MIXER</t>
+  </si>
+  <si>
+    <t>777a9fde-8214-436f-900d-46aa20320e0c</t>
+  </si>
+  <si>
+    <t>DISHWASHER</t>
+  </si>
+  <si>
+    <t>e8d5b7b0-3504-455b-9d38-3098271e9a8c</t>
+  </si>
+  <si>
+    <t>DISHWASHER RAN</t>
+  </si>
+  <si>
+    <t>CHECK SINK OVERFLOWS FOR LEAKS</t>
+  </si>
+  <si>
+    <t>4b9dec41-0d66-4aaf-96f2-f9bb85c9d017</t>
+  </si>
+  <si>
+    <t>Clearners Commissioning</t>
+  </si>
+  <si>
+    <t>4aea0b7a-f1a9-4ce2-b38f-a8b9f5261661</t>
+  </si>
+  <si>
+    <t>ffa72f37-5a91-4b84-8037-369f0e1262e2</t>
+  </si>
+  <si>
+    <t>8062d38b-aff1-4e9b-b299-d571d861a781</t>
+  </si>
+  <si>
+    <t>Staff Room Commissioning</t>
+  </si>
+  <si>
+    <t>a98d3b1f-9b74-46f2-806e-c52c69ab2323</t>
+  </si>
+  <si>
+    <t>b91a903e-181d-49c7-896b-ee698e4a4b3e</t>
+  </si>
+  <si>
+    <t>b3f8c7bb-f502-4812-90f4-30cbe437a5a2</t>
+  </si>
+  <si>
+    <t>e679f961-c659-4245-bf58-8db40adf5006</t>
+  </si>
+  <si>
+    <t>f45ee236-94dd-416c-851c-d3db03b982d7</t>
+  </si>
+  <si>
+    <t>GIT Room</t>
+  </si>
+  <si>
+    <t>8302e1ea-f893-4406-a330-581b5924c145</t>
+  </si>
+  <si>
+    <t>GIT Complete</t>
+  </si>
+  <si>
+    <t>Pits cleaned</t>
+  </si>
+  <si>
+    <t>8c1c9886-484f-524e-80d9-9515125af26a</t>
+  </si>
+  <si>
+    <t>LAUNDRY Commissioning</t>
+  </si>
+  <si>
+    <t>64ea1fac-2ca2-53ac-8cbc-c7ae8bf68f4a</t>
+  </si>
+  <si>
+    <t>STAND PIPE</t>
+  </si>
+  <si>
+    <t>04384438-8cbc-56bd-86c4-bb4aeb27be4e</t>
+  </si>
+  <si>
+    <t>FLOOR WASTE</t>
+  </si>
+  <si>
+    <t>CHECK BYPASS FOR LEAKS</t>
+  </si>
+  <si>
+    <t>CHECK WASHING MACHINE STOP TAPS</t>
+  </si>
+  <si>
+    <t>a4ab31b8-8aca-5b6c-b2c8-1ba993b40017</t>
+  </si>
+  <si>
+    <t>POWDER ROOM Commissioning</t>
+  </si>
+  <si>
+    <t>35d96b35-816d-5e87-a94b-888fc35b7e98</t>
+  </si>
+  <si>
+    <t>W.C</t>
+  </si>
+  <si>
+    <t>2d80b8d5-edc9-5d5e-bd59-0f9b4c430f9e</t>
+  </si>
+  <si>
+    <t>BASIN</t>
+  </si>
+  <si>
+    <t>84f1a83b-8051-5a5f-8aef-b61f40e88d9d</t>
+  </si>
+  <si>
+    <t>CLEAN BASIN FW</t>
+  </si>
+  <si>
+    <t>CHECK BASIN OVERFLOWS FOR LEAKS</t>
+  </si>
+  <si>
+    <t>88cb63b1-00de-541a-b077-c11a139ebd84</t>
+  </si>
+  <si>
+    <t>ENSUITE Commissioning</t>
+  </si>
+  <si>
+    <t>26264e5a-0a07-5684-a0b4-26648cb60db0</t>
+  </si>
+  <si>
+    <t>SHOWER MIXER</t>
+  </si>
+  <si>
+    <t>463b8134-35ca-5b14-91c7-c7aa8f599d65</t>
+  </si>
+  <si>
+    <t>SHOWER ROSE</t>
+  </si>
+  <si>
+    <t>8598f128-24dd-5051-bcbc-4b2915183d61</t>
+  </si>
+  <si>
+    <t>SHOWER WASTE CLEANED</t>
+  </si>
+  <si>
+    <t>b560d935-0071-5043-ac06-62a2ba69ead2</t>
+  </si>
+  <si>
+    <t>TEMP VALVE</t>
+  </si>
+  <si>
+    <t>1b40ae89-c4ef-5a93-b8f4-b4c45223b099</t>
+  </si>
+  <si>
+    <t>AAV</t>
+  </si>
+  <si>
+    <t>878aa7af-4b19-4365-ab40-ee4cd4743779</t>
+  </si>
+  <si>
+    <t>BATHROOM 1 &amp; 2 Commissioning</t>
+  </si>
+  <si>
+    <t>401e5305-3143-5c56-8933-a07ec3ef4050</t>
+  </si>
+  <si>
+    <t>MALE AMENITIES Commissioning</t>
+  </si>
+  <si>
+    <t>527802fd-68a1-5a0e-8af8-2cbea995b91e</t>
+  </si>
+  <si>
+    <t>URINAL</t>
+  </si>
+  <si>
+    <t>29001543-153b-56ad-9bcb-3194c34bac22</t>
+  </si>
+  <si>
+    <t>FEMALE AMENITIES Commissioning</t>
+  </si>
+  <si>
+    <t>59eb995e-5348-4623-8182-6731ee5a7cd4</t>
+  </si>
+  <si>
+    <t>DDA Commissioning</t>
+  </si>
+  <si>
+    <t>7d56a696-a713-53f7-8541-0381c3ffaced</t>
+  </si>
+  <si>
+    <t>KITCHEN Commissioning</t>
+  </si>
+  <si>
+    <t>4b24df01-ce16-587b-998d-9930575c19a6</t>
+  </si>
+  <si>
+    <t>KITCHEN SINK</t>
+  </si>
+  <si>
+    <t>2e9713bf-41cb-511f-bfdc-581ca3bdfd01</t>
+  </si>
+  <si>
+    <t>d443c8c1-6a37-5ee7-b2f1-5ea1ebdb3057</t>
+  </si>
+  <si>
+    <t>29001785-8fa6-57a5-9bd1-7b707a36c647</t>
+  </si>
+  <si>
+    <t>3ebb03ec-ecf1-5de5-922c-e6954717ef95</t>
+  </si>
+  <si>
+    <t>SINK WASTE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,8 +425,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -361,6 +613,22 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4CC82"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5D5E3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -524,8 +792,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -901,18 +1178,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC82424-48FB-42A9-BBD7-D5F7213BFFEF}">
-  <dimension ref="A1:G1"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="18.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="159" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.85546875" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -938,7 +1219,1179 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="9"/>
+      <c r="B48" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="9"/>
+      <c r="B60" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+    </row>
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B69" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B70" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="9"/>
+      <c r="B72" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B73" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B74" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B75" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B76" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B77" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B78" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+    </row>
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B82" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B83" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B84" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="9"/>
+      <c r="B85" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B86" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B88" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B89" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B90" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+    </row>
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B94" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B95" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B96" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="9"/>
+      <c r="B97" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B98" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B99" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B100" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B101" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B102" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+    </row>
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B106" t="s">
+        <v>15</v>
+      </c>
+      <c r="C106" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B107" t="s">
+        <v>15</v>
+      </c>
+      <c r="C107" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B108" t="s">
+        <v>15</v>
+      </c>
+      <c r="C108" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B109" t="s">
+        <v>15</v>
+      </c>
+      <c r="C109" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B110" t="s">
+        <v>15</v>
+      </c>
+      <c r="C110" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:G111" xr:uid="{2FC82424-48FB-42A9-BBD7-D5F7213BFFEF}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="checklist"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>